--- a/data/trans_bre/P57_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Habitat-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 9,88</t>
+          <t>-11,1; 10,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 6,42</t>
+          <t>-10,74; 6,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-44,23; 69,18</t>
+          <t>-41,13; 73,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,82; 64,84</t>
+          <t>-47,96; 57,05</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 10,9</t>
+          <t>1,38; 11,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 7,42</t>
+          <t>-0,38; 7,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 66,87</t>
+          <t>7,56; 68,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 49,53</t>
+          <t>-1,62; 52,89</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 7,35</t>
+          <t>0,02; 7,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 8,65</t>
+          <t>2,64; 8,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 39,8</t>
+          <t>-0,35; 41,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,39; 87,05</t>
+          <t>18,13; 85,17</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 6,4</t>
+          <t>-2,25; 5,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 3,04</t>
+          <t>-4,48; 2,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 43,01</t>
+          <t>-11,78; 37,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,13; 38,85</t>
+          <t>-39,88; 36,35</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 12,03</t>
+          <t>4,54; 12,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,5</t>
+          <t>0,98; 7,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,12; 77,31</t>
+          <t>22,61; 78,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 50,3</t>
+          <t>4,97; 48,12</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,94</t>
+          <t>2,87; 6,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,91</t>
+          <t>1,07; 5,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,91; 40,03</t>
+          <t>14,65; 39,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,17; 38,46</t>
+          <t>7,66; 39,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Habitat-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 10,27</t>
+          <t>-11,58; 10,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-41,13; 73,14</t>
+          <t>-45,26; 68,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -631,7 +631,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 11,11</t>
+          <t>1,43; 11,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,56; 68,23</t>
+          <t>6,21; 69,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 7,74</t>
+          <t>0,04; 7,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 41,86</t>
+          <t>0,06; 41,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 5,99</t>
+          <t>-1,94; 6,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 37,9</t>
+          <t>-10,25; 40,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,54; 12,29</t>
+          <t>4,65; 12,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,61; 78,44</t>
+          <t>23,27; 75,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,95</t>
+          <t>3,0; 6,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,65; 39,8</t>
+          <t>15,45; 40,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">

--- a/data/trans_bre/P57_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -519,7 +519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 10,53</t>
+          <t>-11,32; 9,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 6,22</t>
+          <t>-11,52; 6,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-45,26; 68,83</t>
+          <t>-44,23; 69,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-47,96; 57,05</t>
+          <t>-46,82; 64,84</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 11,41</t>
+          <t>0,74; 10,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 7,75</t>
+          <t>-0,77; 7,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 69,03</t>
+          <t>3,44; 66,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 52,89</t>
+          <t>-3,02; 49,53</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 7,68</t>
+          <t>-0,21; 7,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 8,59</t>
+          <t>2,44; 8,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 41,6</t>
+          <t>-0,94; 39,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,13; 85,17</t>
+          <t>18,39; 87,05</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 6,17</t>
+          <t>-2,09; 6,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 2,83</t>
+          <t>-4,72; 3,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 40,44</t>
+          <t>-10,44; 43,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,88; 36,35</t>
+          <t>-41,13; 38,85</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 12,02</t>
+          <t>4,18; 12,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 7,41</t>
+          <t>0,75; 7,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,27; 75,35</t>
+          <t>21,12; 77,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 48,12</t>
+          <t>4,26; 50,3</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,93</t>
+          <t>2,83; 6,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,03</t>
+          <t>1,32; 4,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,45; 40,28</t>
+          <t>14,91; 40,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,66; 39,8</t>
+          <t>9,17; 38,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Habitat-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -519,7 +519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,86%</t>
+          <t>18,19%</t>
         </is>
       </c>
     </row>
@@ -609,29 +609,29 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 9,88</t>
+          <t>0,28; 9,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 6,42</t>
+          <t>-1,14; 6,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-44,23; 69,18</t>
+          <t>1,58; 57,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,82; 64,84</t>
+          <t>-5,69; 47,07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>77,35%</t>
         </is>
       </c>
     </row>
@@ -669,29 +669,29 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 10,9</t>
+          <t>-0,21; 7,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 7,42</t>
+          <t>3,79; 12,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 66,87</t>
+          <t>-0,94; 39,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 49,53</t>
+          <t>29,83; 244,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46,79%</t>
+          <t>-16,43%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 7,35</t>
+          <t>-2,09; 6,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 8,65</t>
+          <t>-6,83; 2,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 39,8</t>
+          <t>-10,44; 43,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,39; 87,05</t>
+          <t>-60,08; 24,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>47,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>20,65%</t>
         </is>
       </c>
     </row>
@@ -789,29 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 6,4</t>
+          <t>4,18; 12,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 3,04</t>
+          <t>-0,96; 7,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 43,01</t>
+          <t>21,12; 77,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,13; 38,85</t>
+          <t>-5,23; 49,46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,25</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>47,21%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>26,5%</t>
         </is>
       </c>
     </row>
@@ -849,94 +849,34 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 12,03</t>
+          <t>2,83; 6,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,5</t>
+          <t>0,41; 5,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,12; 77,31</t>
+          <t>14,91; 40,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 50,3</t>
+          <t>3,45; 55,42</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,95</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,3</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>26,71%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>24,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 6,94</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 4,91</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>14,91; 40,03</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>9,17; 38,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -945,7 +885,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P57_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Habitat-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 9,62</t>
+          <t>0,3; 9,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 6,69</t>
+          <t>-0,72; 6,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 57,47</t>
+          <t>1,23; 59,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 47,07</t>
+          <t>-4,11; 44,59</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 7,35</t>
+          <t>0,04; 7,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,79; 12,58</t>
+          <t>3,68; 12,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 39,8</t>
+          <t>0,12; 42,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,83; 244,67</t>
+          <t>28,65; 224,14</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 6,4</t>
+          <t>-1,78; 6,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 2,04</t>
+          <t>-6,05; 1,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 43,01</t>
+          <t>-9,42; 39,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-60,08; 24,93</t>
+          <t>-59,67; 24,45</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 12,03</t>
+          <t>4,39; 11,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 7,07</t>
+          <t>-1,03; 6,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,12; 77,31</t>
+          <t>23,61; 74,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 49,46</t>
+          <t>-5,81; 44,78</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,94</t>
+          <t>2,96; 6,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,9</t>
+          <t>0,4; 6,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,91; 40,03</t>
+          <t>14,74; 39,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 55,42</t>
+          <t>3,75; 63,47</t>
         </is>
       </c>
     </row>
